--- a/Finflux Automation Excels/Client/5036-DISBURSELOANon01Jan2015-RunPeriodicAccrualJob-VIEWJOURNALENTRIES-NPA-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5036-DISBURSELOANon01Jan2015-RunPeriodicAccrualJob-VIEWJOURNALENTRIES-NPA-MakeRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>98.65</v>
       </c>
       <c r="F3" s="6">
-        <v>0</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -1486,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
